--- a/ONCHO/Impact Assessments/Benin/bj_oncho_prestop_4_covid_interview.xlsx
+++ b/ONCHO/Impact Assessments/Benin/bj_oncho_prestop_4_covid_interview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FF26C0-4D47-4CE0-9331-1619B1140ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE15D30E-31BB-408E-A921-573350E207BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>form_title</t>
   </si>
@@ -125,9 +125,6 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>bj_oncho_prestop_4_covid_interview</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -146,15 +143,9 @@
     <t>string</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>activite</t>
   </si>
   <si>
-    <t xml:space="preserve">Activités </t>
-  </si>
-  <si>
     <t>A cette date avez-vous observé ou participé à l 'Evaluation épidémiologique dans la commune de </t>
   </si>
   <si>
@@ -239,7 +230,13 @@
     <t>sop_mise_en_oeuvre</t>
   </si>
   <si>
-    <t xml:space="preserve">Benin ONCHO Pre stop TDM - 4. COVID - Formulaire d'entretien semi-structuré rapide </t>
+    <t>Activité</t>
+  </si>
+  <si>
+    <t>Benin ONCHO Pre stop TDM - 4. COVID - Formulaire d'entretien semi-structuré rapide V2</t>
+  </si>
+  <si>
+    <t>bj_oncho_prestop_4_covid_interview_v2</t>
   </si>
 </sst>
 </file>
@@ -692,7 +689,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -751,13 +748,13 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
@@ -773,13 +770,13 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
@@ -795,13 +792,13 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="14"/>
@@ -817,16 +814,16 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13"/>
@@ -841,20 +838,20 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="14"/>
       <c r="F6" s="13"/>
       <c r="G6" s="11"/>
       <c r="H6" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="8" t="s">
@@ -868,17 +865,17 @@
         <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="16"/>
       <c r="H7" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="8" t="s">
@@ -889,20 +886,20 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
       <c r="H8" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="8" t="s">
@@ -916,17 +913,17 @@
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="8"/>
       <c r="F9" s="13"/>
       <c r="G9" s="11"/>
       <c r="H9" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
@@ -937,20 +934,20 @@
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="10"/>
       <c r="F10" s="13"/>
       <c r="G10" s="16"/>
       <c r="H10" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="8" t="s">
@@ -964,17 +961,17 @@
         <v>21</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="10"/>
       <c r="F11" s="13"/>
       <c r="G11" s="16"/>
       <c r="H11" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="8" t="s">
@@ -988,17 +985,17 @@
         <v>21</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="16"/>
       <c r="H12" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="8"/>
@@ -1010,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>25</v>
@@ -1030,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1048,7 +1045,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1096,7 +1093,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>19</v>
@@ -1107,7 +1104,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>20</v>
@@ -1118,7 +1115,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>19</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>20</v>
@@ -1140,7 +1137,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>27</v>
@@ -1466,7 +1463,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1495,10 +1492,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>20201130</v>
